--- a/doc/操作总结.xlsx
+++ b/doc/操作总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>目前能力只能做短线，必须严守操作纪律，严格止盈止损</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>注意板块的联动性，中线不做有明显利空的版块（例如鸿茅药酒利空中药）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.17美国封杀中兴通讯，芯片板块当日反向打压，而后3个交易日大幅拉伸。突发事件打破了市场的多空平衡，此时短线建仓可不考虑基本面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,12 +113,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,72 +417,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="90.625" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="99.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/操作总结.xlsx
+++ b/doc/操作总结.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>目前能力只能做短线，必须严守操作纪律，严格止盈止损</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,13 +68,202 @@
   <si>
     <t>2018.4.17美国封杀中兴通讯，芯片板块当日反向打压，而后3个交易日大幅拉伸。突发事件打破了市场的多空平衡，此时短线建仓可不考虑基本面</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短线和中线票操作都要有计划，短线票每天都要有计划</t>
+  </si>
+  <si>
+    <t>空头会利用积累的风险将指数砸破位</t>
+  </si>
+  <si>
+    <t>主力不敢砸太低，会有其它资金抢筹</t>
+  </si>
+  <si>
+    <t>长期横盘，指数第一次暴跌，开盘清仓所有票；多次暴跌则要区分对待</t>
+  </si>
+  <si>
+    <t>中线票不能按短线思维操作（严防筹码T飞）</t>
+  </si>
+  <si>
+    <t>很多票反弹前一天会洗个新低，此时小幅拉升非常容易丢掉筹码,敢于长期持仓的票才能坚持持仓</t>
+  </si>
+  <si>
+    <t>短线票决不能满仓套死</t>
+  </si>
+  <si>
+    <t>熊市反弹会出现板块轮动</t>
+  </si>
+  <si>
+    <t>底部出利好，至少反弹10个点</t>
+  </si>
+  <si>
+    <t>做T还是加仓要计划清楚，做T要保住底仓，盘中要T出；加仓要有层次</t>
+  </si>
+  <si>
+    <t>利空消息不论真假必洗散，幅度在5个点以上</t>
+  </si>
+  <si>
+    <t>做单主题要明确，一旦条件出现必须果断行动</t>
+  </si>
+  <si>
+    <t>抓住市场波动的核心逻辑，其核心概念会成为反弹先锋</t>
+  </si>
+  <si>
+    <t>确定性的利空会泥沙俱下，好票反弹时会有突出表现</t>
+  </si>
+  <si>
+    <t>单一事件足以燃爆大盘，反向亦然</t>
+  </si>
+  <si>
+    <t>公司经营不出问题，股权转让不算利好或利空</t>
+  </si>
+  <si>
+    <t>世界杯魔咒，资金分流</t>
+  </si>
+  <si>
+    <t>大幅下跌后（好票10个点，垃圾20个点），刚开始大概率震荡，3震后要持仓</t>
+  </si>
+  <si>
+    <t>在持续上涨中建仓，在下跌触底中建仓</t>
+  </si>
+  <si>
+    <t>放量大阴线，后面绝对有低点</t>
+  </si>
+  <si>
+    <t>龙头、新方向、热点板块才能有想象空间</t>
+  </si>
+  <si>
+    <t>确定性利好下的强势股不会大幅回调</t>
+  </si>
+  <si>
+    <t>中兴通讯总结：开板后以5个交易日为周期震荡，最低价为开板价10个点左右，第一次拉升为15个点左右，然后回踩低点，第二波反弹为放量价的30%以上。股票复牌正好在解禁前2个星期</t>
+  </si>
+  <si>
+    <t>暴跌第二天才能考虑做T</t>
+  </si>
+  <si>
+    <t>相关板块具有相关性，单一重大事件足以引爆板块，有利空必须清仓</t>
+  </si>
+  <si>
+    <t>板块大利空，至少1个月不能碰；个股利空，短期也没有行情</t>
+  </si>
+  <si>
+    <t>反弹不知道买什么就买ETF</t>
+  </si>
+  <si>
+    <t>成熟看PE，成长看PS</t>
+  </si>
+  <si>
+    <t>熊市反弹只有3天</t>
+  </si>
+  <si>
+    <t>2018上半年熊市由经济形势和货币政策导致，下半年贸易战需要对冲</t>
+  </si>
+  <si>
+    <t>暴跌反弹只能做强势股，不要怕追高，获利就了解</t>
+  </si>
+  <si>
+    <t>底部是区域不可能精确到点位，通过分批建仓降低风险</t>
+  </si>
+  <si>
+    <t>操作计划详细到区域</t>
+  </si>
+  <si>
+    <t>同一阶段不要超过两个主题，最好只有一个，注意机会成本；投资主体不能死守不变，可以根据市场情况进行调整</t>
+  </si>
+  <si>
+    <t>强势股跳空缺口不一定会回补</t>
+  </si>
+  <si>
+    <t>地量要变盘，可能涨也可能跌</t>
+  </si>
+  <si>
+    <t>先锋股会先于板块启动</t>
+  </si>
+  <si>
+    <t>晚上出利好，开盘要建仓，计划要考虑实际市场情绪；急杀后出恐慌，无实质利空，开盘要抄底</t>
+  </si>
+  <si>
+    <t>熊市杀估值</t>
+  </si>
+  <si>
+    <t>前期底部、启动点很容易成为反弹点，波动大的票在10个点以内，波动小的票在1.5个点以内，热点票容易被反复炒作</t>
+  </si>
+  <si>
+    <t>放量上涨后顶部缩量，持仓最多3天，不涨要清仓</t>
+  </si>
+  <si>
+    <t>不知道做什么就什么也不做</t>
+  </si>
+  <si>
+    <t>出现利空，主力会趁机洗盘吸筹。此时调整的时间长度和空间幅度可能会非常大。</t>
+  </si>
+  <si>
+    <t>大盘大跌，个股不跌，强势票的标志，如果此时大盘处于相对低点，个股叠加其它利好，是非常好的短线机会。收盘是非常好的买点，可以测试是否强势和是否是底部</t>
+  </si>
+  <si>
+    <t>大概率上涨的票不能指望平开，涨一个点左右也是很好的建仓点</t>
+  </si>
+  <si>
+    <t>利润由风险换得，上轨只有风险没有利润</t>
+  </si>
+  <si>
+    <t>持续放量不能卖。即使下跌也会至少在高位盘整2天。</t>
+  </si>
+  <si>
+    <t>底部出利好，高开也建仓</t>
+  </si>
+  <si>
+    <t>不要纠结于0.3个点的滑点</t>
+  </si>
+  <si>
+    <t>开仓平仓看机会不看盈亏</t>
+  </si>
+  <si>
+    <t>跌穿支撑，反弹再出</t>
+  </si>
+  <si>
+    <t>危机抄底，买建仓成本高，调整幅度大的</t>
+  </si>
+  <si>
+    <t>短线操作短线票，中线票等机会</t>
+  </si>
+  <si>
+    <t>市场情绪好，短线冲高回调可考虑建仓(V形反转)。V形反转买不到阴线。</t>
+  </si>
+  <si>
+    <t>越限越涨，龙头被限做其它</t>
+  </si>
+  <si>
+    <t>急跌才有机会，越是觉得不能做，越是会超跌反弹。庄家会在市场极度恐慌时反向操作。</t>
+  </si>
+  <si>
+    <t>并非所有的机会都出现在开盘和收盘，盘中出现机会也应执行</t>
+  </si>
+  <si>
+    <t>注意关键事件前一天的风险释放。靴子落地可能会反弹。可在靴子落地前一天收盘前建仓。</t>
+  </si>
+  <si>
+    <t>强势股前期启动点肯能会成为反弹点，跨度在1个月以上。</t>
+  </si>
+  <si>
+    <t>反弹时，强势板块会轮流反弹</t>
+  </si>
+  <si>
+    <t>好的想法要坚持，上涨不会明天就来，但是一定会来。</t>
+  </si>
+  <si>
+    <t>上涨一定是后期才加速</t>
+  </si>
+  <si>
+    <t>熊市重质，一定不能长期持有有利空的票</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +279,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,12 +308,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,9 +324,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -490,6 +694,321 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25">
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25">
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="14.25">
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="14.25">
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="14.25">
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="14.25">
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="14.25">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="14.25">
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="14.25">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="14.25">
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="14.25">
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="14.25">
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="14.25">
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="14.25">
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="14.25">
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="14.25">
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="14.25">
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="14.25">
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="14.25">
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="14.25">
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="14.25">
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="14.25">
+      <c r="B36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="14.25">
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="14.25">
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="14.25">
+      <c r="B39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="14.25">
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="14.25">
+      <c r="B41" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="14.25">
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="14.25">
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="14.25">
+      <c r="B44" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="14.25">
+      <c r="B45" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="14.25">
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="14.25">
+      <c r="B47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="14.25">
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="14.25">
+      <c r="B49" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="14.25">
+      <c r="B50" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="14.25">
+      <c r="B51" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="14.25">
+      <c r="B52" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="14.25">
+      <c r="B53" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="14.25">
+      <c r="B54" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="14.25">
+      <c r="B55" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="14.25">
+      <c r="B56" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="14.25">
+      <c r="B57" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="14.25">
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="14.25">
+      <c r="B59" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="14.25">
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="14.25">
+      <c r="B61" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="14.25">
+      <c r="B62" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="14.25">
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="14.25">
+      <c r="B64" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="14.25">
+      <c r="B65" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="14.25">
+      <c r="B66" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="14.25">
+      <c r="B67" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="14.25">
+      <c r="B68" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="14.25">
+      <c r="B69" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="14.25">
+      <c r="B70" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="14.25">
+      <c r="B71" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="14.25">
+      <c r="B72" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="14.25">
+      <c r="B73" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="14.25">
+      <c r="B74" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
